--- a/src/main/java/de/upb/sse/cutNRun/results/Total_Java_And_NonJava_Projects_Considered.xlsx
+++ b/src/main/java/de/upb/sse/cutNRun/results/Total_Java_And_NonJava_Projects_Considered.xlsx
@@ -1,18 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shazib\DEV\cutNRun\src\main\java\de\upb\sse\cutNRun\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A828DA26-4BBF-443F-99AA-328C2BFC0DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Total_Java_And_NonJava_Projects" r:id="rId3" sheetId="1"/>
+    <sheet name="Total_Java_And_NonJava_Projects" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Total_Java_And_NonJava_Projects!$B$1:$B$138</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="209">
   <si>
     <t>ProjectName</t>
   </si>
@@ -65,7 +76,7 @@
     <t>org.scala-lang_scala-library_2.13.14</t>
   </si>
   <si>
-    <t>5.555556</t>
+    <t>5.5652175</t>
   </si>
   <si>
     <t>org.jetbrains.kotlin_kotlin-stdlib-jdk8_2.0.20</t>
@@ -74,7 +85,7 @@
     <t>org.mockito_mockito-core_5.12.0</t>
   </si>
   <si>
-    <t>99.57806</t>
+    <t>99.78858</t>
   </si>
   <si>
     <t>com.fasterxml.jackson.core_jackson-databind_2.17.2</t>
@@ -161,7 +172,7 @@
     <t>org.mockito_mockito-all_1.10.19</t>
   </si>
   <si>
-    <t>99.62264</t>
+    <t>99.81097</t>
   </si>
   <si>
     <t>org.apache.httpcomponents_httpclient_4.5.14</t>
@@ -353,7 +364,7 @@
     <t>com.mysql_mysql-connector-j_8.0.33</t>
   </si>
   <si>
-    <t>99.27141</t>
+    <t>99.45255</t>
   </si>
   <si>
     <t>androidx.core_core-ktx_1.13.1</t>
@@ -374,7 +385,7 @@
     <t>org.osgi_org.osgi.core_6.0.0</t>
   </si>
   <si>
-    <t>85.52631</t>
+    <t>86.09272</t>
   </si>
   <si>
     <t>javax.inject_javax.inject_1</t>
@@ -471,18 +482,185 @@
   </si>
   <si>
     <t>99.61089</t>
+  </si>
+  <si>
+    <t>org.jetbrains.kotlin_kotlin-stdlib-js_2.1.0</t>
+  </si>
+  <si>
+    <t>org.apache.httpcomponents.core5_httpcore5_5.3.1</t>
+  </si>
+  <si>
+    <t>org.easymock_easymock_5.5.0</t>
+  </si>
+  <si>
+    <t>org.postgresql_postgresql_42.7.4</t>
+  </si>
+  <si>
+    <t>94.31438</t>
+  </si>
+  <si>
+    <t>org.yaml_snakeyaml_2.3</t>
+  </si>
+  <si>
+    <t>org.apache.commons_commons-collections4_4.4</t>
+  </si>
+  <si>
+    <t>commons-cli_commons-cli_1.9.0</t>
+  </si>
+  <si>
+    <t>org.apache.maven_maven-core_3.9.9</t>
+  </si>
+  <si>
+    <t>jakarta.servlet_jakarta.servlet-api_6.1.0</t>
+  </si>
+  <si>
+    <t>org.apache.groovy_groovy-all_4.0.24</t>
+  </si>
+  <si>
+    <t>85.02955</t>
+  </si>
+  <si>
+    <t>org.scalacheck_scalacheck_1.18.1</t>
+  </si>
+  <si>
+    <t>Unable to collect/resolve dependency tree for a resolution due to: The following artifacts could not be resolved: org.scalacheck:scalacheck:jar:sources:1.18.1 (absent): Could not find artifact org.scalacheck:scalacheck:jar:sources:1.18.1 in central (https://repo.maven.apache.org/maven2/), caused by: Could not find artifact org.scalacheck:scalacheck:jar:sources:1.18.1 in central (https://repo.maven.apache.org/maven2/)</t>
+  </si>
+  <si>
+    <t>androidx.recyclerview_recyclerview_1.3.2</t>
+  </si>
+  <si>
+    <t>Unable to collect/resolve dependency tree for a resolution due to: The following artifacts could not be resolved: androidx.recyclerview:recyclerview:jar:sources:1.3.2 (absent): Could not find artifact androidx.recyclerview:recyclerview:jar:sources:1.3.2 in central (https://repo.maven.apache.org/maven2/), caused by: Could not find artifact androidx.recyclerview:recyclerview:jar:sources:1.3.2 in central (https://repo.maven.apache.org/maven2/)</t>
+  </si>
+  <si>
+    <t>org.powermock_powermock-module-junit4_2.0.9</t>
+  </si>
+  <si>
+    <t>androidx.legacy_legacy-support-v4_1.0.0</t>
+  </si>
+  <si>
+    <t>Unable to collect/resolve dependency tree for a resolution due to: The following artifacts could not be resolved: androidx.legacy:legacy-support-v4:jar:sources:1.0.0 (absent): Could not find artifact androidx.legacy:legacy-support-v4:jar:sources:1.0.0 in central (https://repo.maven.apache.org/maven2/), caused by: Could not find artifact androidx.legacy:legacy-support-v4:jar:sources:1.0.0 in central (https://repo.maven.apache.org/maven2/)</t>
+  </si>
+  <si>
+    <t>org.springframework.boot_spring-boot-starter-actuator_3.4.0</t>
+  </si>
+  <si>
+    <t>org.springframework_spring-jdbc_6.2.0</t>
+  </si>
+  <si>
+    <t>98.81423</t>
+  </si>
+  <si>
+    <t>org.hibernate.orm_hibernate-core_6.6.3.Final</t>
+  </si>
+  <si>
+    <t>99.69325</t>
+  </si>
+  <si>
+    <t>org.mockito_mockito-junit-jupiter_5.14.2</t>
+  </si>
+  <si>
+    <t>androidx.annotation_annotation_1.9.1</t>
+  </si>
+  <si>
+    <t>Unable to collect/resolve dependency tree for a resolution due to: The following artifacts could not be resolved: androidx.annotation:annotation:jar:sources:1.9.1 (absent): Could not find artifact androidx.annotation:annotation:jar:sources:1.9.1 in central (https://repo.maven.apache.org/maven2/), caused by: Could not find artifact androidx.annotation:annotation:jar:sources:1.9.1 in central (https://repo.maven.apache.org/maven2/)</t>
+  </si>
+  <si>
+    <t>org.junit.vintage_junit-vintage-engine_5.11.3</t>
+  </si>
+  <si>
+    <t>com.sun.xml.bind_jaxb-impl_4.0.5</t>
+  </si>
+  <si>
+    <t>99.731186</t>
+  </si>
+  <si>
+    <t>org.reflections_reflections_0.10.2</t>
+  </si>
+  <si>
+    <t>com.fasterxml.jackson.dataformat_jackson-dataformat-yaml_2.18.2</t>
+  </si>
+  <si>
+    <t>94.117645</t>
+  </si>
+  <si>
+    <t>com.squareup.okhttp3_logging-interceptor_4.12.0</t>
+  </si>
+  <si>
+    <t>org.scala-lang_scala-reflect_2.13.15</t>
+  </si>
+  <si>
+    <t>1.8181818</t>
+  </si>
+  <si>
+    <t>org.hibernate.validator_hibernate-validator_8.0.1.Final</t>
+  </si>
+  <si>
+    <t>org.apache.commons_commons-compress_1.27.1</t>
+  </si>
+  <si>
+    <t>org.slf4j_jul-to-slf4j_2.0.16</t>
+  </si>
+  <si>
+    <t>org.springframework_spring-tx_6.2.0</t>
+  </si>
+  <si>
+    <t>98.84393</t>
+  </si>
+  <si>
+    <t>org.slf4j_log4j-over-slf4j_2.0.16</t>
+  </si>
+  <si>
+    <t>org.eclipse.jetty_jetty-server_12.0.15</t>
+  </si>
+  <si>
+    <t>99.11504</t>
+  </si>
+  <si>
+    <t>org.bouncycastle_bcprov-jdk18on_1.7</t>
+  </si>
+  <si>
+    <t>Unable to collect/resolve dependency tree for a resolution due to: The following artifacts could not be resolved: org.bouncycastle:bcprov-jdk18on:jar:sources:1.7 (absent): Could not find artifact org.bouncycastle:bcprov-jdk18on:jar:sources:1.7 in central (https://repo.maven.apache.org/maven2/), caused by: Could not find artifact org.bouncycastle:bcprov-jdk18on:jar:sources:1.7 in central (https://repo.maven.apache.org/maven2/)</t>
+  </si>
+  <si>
+    <t>org.jsoup_jsoup_1.18.3</t>
+  </si>
+  <si>
+    <t>com.fasterxml.jackson.core_jackson-databind_2.18.2</t>
+  </si>
+  <si>
+    <t>99.79123</t>
+  </si>
+  <si>
+    <t>com.squareup.retrofit2_converter-gson_2.11.0</t>
+  </si>
+  <si>
+    <t>org.springframework.boot_spring-boot_3.4.0</t>
+  </si>
+  <si>
+    <t>99.744896</t>
+  </si>
+  <si>
+    <t>org.springframework_spring-context-support_6.2.0</t>
+  </si>
+  <si>
+    <t>98.86364</t>
+  </si>
+  <si>
+    <t>org.osgi_osgi.cmpn_7.0.0</t>
+  </si>
+  <si>
+    <t>org.javassist_javassist_3.30.2-GA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -492,7 +670,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -510,18 +688,352 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D138"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="57.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -535,7 +1047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -549,7 +1061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -563,7 +1075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -577,7 +1089,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -591,7 +1103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -605,7 +1117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -619,7 +1131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -633,7 +1145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -647,7 +1159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -661,7 +1173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -675,7 +1187,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -689,7 +1201,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -703,7 +1215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -717,7 +1229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -731,7 +1243,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -745,7 +1257,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -759,7 +1271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -773,7 +1285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -787,7 +1299,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -801,7 +1313,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -815,7 +1327,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -829,7 +1341,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -843,7 +1355,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -857,7 +1369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -871,7 +1383,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -885,7 +1397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -899,7 +1411,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -913,7 +1425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -927,7 +1439,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>52</v>
       </c>
@@ -941,7 +1453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>54</v>
       </c>
@@ -955,7 +1467,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -969,7 +1481,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -983,7 +1495,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -997,7 +1509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -1011,7 +1523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -1025,7 +1537,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>63</v>
       </c>
@@ -1039,7 +1551,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -1053,7 +1565,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -1067,7 +1579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>68</v>
       </c>
@@ -1081,7 +1593,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -1095,7 +1607,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>72</v>
       </c>
@@ -1109,7 +1621,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -1123,7 +1635,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>76</v>
       </c>
@@ -1137,7 +1649,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>78</v>
       </c>
@@ -1151,7 +1663,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>80</v>
       </c>
@@ -1165,7 +1677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>81</v>
       </c>
@@ -1179,7 +1691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>82</v>
       </c>
@@ -1193,7 +1705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>83</v>
       </c>
@@ -1207,7 +1719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>84</v>
       </c>
@@ -1221,7 +1733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>85</v>
       </c>
@@ -1235,7 +1747,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>86</v>
       </c>
@@ -1249,7 +1761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>87</v>
       </c>
@@ -1263,7 +1775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>88</v>
       </c>
@@ -1277,7 +1789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>89</v>
       </c>
@@ -1291,7 +1803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>90</v>
       </c>
@@ -1305,7 +1817,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>92</v>
       </c>
@@ -1319,7 +1831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>94</v>
       </c>
@@ -1333,7 +1845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>95</v>
       </c>
@@ -1347,7 +1859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>97</v>
       </c>
@@ -1361,7 +1873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>98</v>
       </c>
@@ -1375,7 +1887,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>99</v>
       </c>
@@ -1389,7 +1901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>101</v>
       </c>
@@ -1403,7 +1915,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>102</v>
       </c>
@@ -1417,7 +1929,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>103</v>
       </c>
@@ -1431,7 +1943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>105</v>
       </c>
@@ -1445,7 +1957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>106</v>
       </c>
@@ -1459,7 +1971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>108</v>
       </c>
@@ -1473,7 +1985,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>109</v>
       </c>
@@ -1487,7 +1999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>110</v>
       </c>
@@ -1501,7 +2013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>111</v>
       </c>
@@ -1515,7 +2027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>112</v>
       </c>
@@ -1529,7 +2041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>114</v>
       </c>
@@ -1543,7 +2055,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>115</v>
       </c>
@@ -1557,7 +2069,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>116</v>
       </c>
@@ -1571,7 +2083,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>118</v>
       </c>
@@ -1585,7 +2097,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>119</v>
       </c>
@@ -1599,7 +2111,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>121</v>
       </c>
@@ -1613,7 +2125,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>122</v>
       </c>
@@ -1627,7 +2139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>123</v>
       </c>
@@ -1641,7 +2153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>124</v>
       </c>
@@ -1655,7 +2167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>125</v>
       </c>
@@ -1669,7 +2181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>127</v>
       </c>
@@ -1683,7 +2195,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>129</v>
       </c>
@@ -1697,7 +2209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>131</v>
       </c>
@@ -1711,7 +2223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>133</v>
       </c>
@@ -1725,7 +2237,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>134</v>
       </c>
@@ -1739,7 +2251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>136</v>
       </c>
@@ -1753,7 +2265,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>138</v>
       </c>
@@ -1767,7 +2279,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>139</v>
       </c>
@@ -1781,7 +2293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>140</v>
       </c>
@@ -1795,7 +2307,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>142</v>
       </c>
@@ -1809,7 +2321,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>143</v>
       </c>
@@ -1823,7 +2335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>145</v>
       </c>
@@ -1837,7 +2349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>146</v>
       </c>
@@ -1851,7 +2363,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>147</v>
       </c>
@@ -1865,7 +2377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>149</v>
       </c>
@@ -1879,7 +2391,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>150</v>
       </c>
@@ -1893,7 +2405,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>151</v>
       </c>
@@ -1907,7 +2419,561 @@
         <v>7</v>
       </c>
     </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>153</v>
+      </c>
+      <c r="B100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>154</v>
+      </c>
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>155</v>
+      </c>
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>156</v>
+      </c>
+      <c r="B103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" t="s">
+        <v>157</v>
+      </c>
+      <c r="D103" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>158</v>
+      </c>
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>159</v>
+      </c>
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>160</v>
+      </c>
+      <c r="B106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>161</v>
+      </c>
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>162</v>
+      </c>
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>163</v>
+      </c>
+      <c r="B109" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" t="s">
+        <v>164</v>
+      </c>
+      <c r="D109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>165</v>
+      </c>
+      <c r="B110" t="s">
+        <v>31</v>
+      </c>
+      <c r="C110" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>167</v>
+      </c>
+      <c r="B111" t="s">
+        <v>31</v>
+      </c>
+      <c r="C111" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>169</v>
+      </c>
+      <c r="B112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>170</v>
+      </c>
+      <c r="B113" t="s">
+        <v>31</v>
+      </c>
+      <c r="C113" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>172</v>
+      </c>
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>173</v>
+      </c>
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" t="s">
+        <v>174</v>
+      </c>
+      <c r="D115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>175</v>
+      </c>
+      <c r="B116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" t="s">
+        <v>176</v>
+      </c>
+      <c r="D116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>177</v>
+      </c>
+      <c r="B117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>178</v>
+      </c>
+      <c r="B118" t="s">
+        <v>31</v>
+      </c>
+      <c r="C118" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>180</v>
+      </c>
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>181</v>
+      </c>
+      <c r="B120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" t="s">
+        <v>182</v>
+      </c>
+      <c r="D120" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>183</v>
+      </c>
+      <c r="B121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>184</v>
+      </c>
+      <c r="B122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" t="s">
+        <v>185</v>
+      </c>
+      <c r="D122" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>186</v>
+      </c>
+      <c r="B123" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>187</v>
+      </c>
+      <c r="B124" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" t="s">
+        <v>188</v>
+      </c>
+      <c r="D124" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>189</v>
+      </c>
+      <c r="B125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>190</v>
+      </c>
+      <c r="B126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>191</v>
+      </c>
+      <c r="B127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>192</v>
+      </c>
+      <c r="B128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128" t="s">
+        <v>193</v>
+      </c>
+      <c r="D128" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>194</v>
+      </c>
+      <c r="B129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>195</v>
+      </c>
+      <c r="B130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130" t="s">
+        <v>196</v>
+      </c>
+      <c r="D130" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>197</v>
+      </c>
+      <c r="B131" t="s">
+        <v>31</v>
+      </c>
+      <c r="C131" t="s">
+        <v>7</v>
+      </c>
+      <c r="D131" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>199</v>
+      </c>
+      <c r="B132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>200</v>
+      </c>
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133" t="s">
+        <v>201</v>
+      </c>
+      <c r="D133" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>202</v>
+      </c>
+      <c r="B134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>203</v>
+      </c>
+      <c r="B135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" t="s">
+        <v>204</v>
+      </c>
+      <c r="D135" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>205</v>
+      </c>
+      <c r="B136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136" t="s">
+        <v>206</v>
+      </c>
+      <c r="D136" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>207</v>
+      </c>
+      <c r="B137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>208</v>
+      </c>
+      <c r="B138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <autoFilter ref="B1:B138" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="ERROR"/>
+        <filter val="false"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/java/de/upb/sse/cutNRun/results/Total_Java_And_NonJava_Projects_Considered.xlsx
+++ b/src/main/java/de/upb/sse/cutNRun/results/Total_Java_And_NonJava_Projects_Considered.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shazib\DEV\cutNRun\src\main\java\de\upb\sse\cutNRun\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A828DA26-4BBF-443F-99AA-328C2BFC0DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A598CFD9-5DA7-4590-8229-9EEC74AAE289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Total_Java_And_NonJava_Projects" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Total_Java_And_NonJava_Projects!$B$1:$B$138</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Total_Java_And_NonJava_Projects!$B$1:$B$171</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="255">
   <si>
     <t>ProjectName</t>
   </si>
@@ -616,10 +616,7 @@
     <t>99.11504</t>
   </si>
   <si>
-    <t>org.bouncycastle_bcprov-jdk18on_1.7</t>
-  </si>
-  <si>
-    <t>Unable to collect/resolve dependency tree for a resolution due to: The following artifacts could not be resolved: org.bouncycastle:bcprov-jdk18on:jar:sources:1.7 (absent): Could not find artifact org.bouncycastle:bcprov-jdk18on:jar:sources:1.7 in central (https://repo.maven.apache.org/maven2/), caused by: Could not find artifact org.bouncycastle:bcprov-jdk18on:jar:sources:1.7 in central (https://repo.maven.apache.org/maven2/)</t>
+    <t>org.bouncycastle_bcprov-jdk18on_1.79</t>
   </si>
   <si>
     <t>org.jsoup_jsoup_1.18.3</t>
@@ -650,6 +647,147 @@
   </si>
   <si>
     <t>org.javassist_javassist_3.30.2-GA</t>
+  </si>
+  <si>
+    <t>org.apache.commons_commons-text_1.12.0</t>
+  </si>
+  <si>
+    <t>io.reactivex.rxjava3_rxjava_3.1.10</t>
+  </si>
+  <si>
+    <t>org.jetbrains.kotlinx_kotlinx-coroutines-android_1.9.0</t>
+  </si>
+  <si>
+    <t>33.333336</t>
+  </si>
+  <si>
+    <t>jakarta.ws.rs_jakarta.ws.rs-api_4.0.0</t>
+  </si>
+  <si>
+    <t>jakarta.annotation_jakarta.annotation-api_3.0.0</t>
+  </si>
+  <si>
+    <t>org.codehaus.plexus_plexus-utils_4.0.2</t>
+  </si>
+  <si>
+    <t>95.588234</t>
+  </si>
+  <si>
+    <t>org.aspectj_aspectjweaver_1.9.22.1</t>
+  </si>
+  <si>
+    <t>99.858955</t>
+  </si>
+  <si>
+    <t>org.scala-js_scalajs-test-bridge_1.17.0</t>
+  </si>
+  <si>
+    <t>Unable to collect/resolve dependency tree for a resolution due to: The following artifacts could not be resolved: org.scala-js:scalajs-test-bridge:jar:sources:1.17.0 (absent): Could not find artifact org.scala-js:scalajs-test-bridge:jar:sources:1.17.0 in central (https://repo.maven.apache.org/maven2/), caused by: Could not find artifact org.scala-js:scalajs-test-bridge:jar:sources:1.17.0 in central (https://repo.maven.apache.org/maven2/)</t>
+  </si>
+  <si>
+    <t>org.awaitility_awaitility_4.2.2</t>
+  </si>
+  <si>
+    <t>org.hsqldb_hsqldb_2.7.4</t>
+  </si>
+  <si>
+    <t>90.95744</t>
+  </si>
+  <si>
+    <t>org.springframework_spring-aop_6.2.0</t>
+  </si>
+  <si>
+    <t>99.55947</t>
+  </si>
+  <si>
+    <t>androidx.constraintlayout_constraintlayout_2.2.0</t>
+  </si>
+  <si>
+    <t>Unable to collect/resolve dependency tree for a resolution due to: The following artifacts could not be resolved: androidx.constraintlayout:constraintlayout:jar:sources:2.2.0 (absent): Could not find artifact androidx.constraintlayout:constraintlayout:jar:sources:2.2.0 in central (https://repo.maven.apache.org/maven2/), caused by: Could not find artifact androidx.constraintlayout:constraintlayout:jar:sources:2.2.0 in central (https://repo.maven.apache.org/maven2/)</t>
+  </si>
+  <si>
+    <t>jakarta.xml.bind_jakarta.xml.bind-api_4.0.2</t>
+  </si>
+  <si>
+    <t>org.springframework.boot_spring-boot-starter-aop_3.4.0</t>
+  </si>
+  <si>
+    <t>org.jetbrains.kotlin_kotlin-dom-api-compat_2.1.0</t>
+  </si>
+  <si>
+    <t>com.github.bumptech.glide_glide_4.16.0</t>
+  </si>
+  <si>
+    <t>org.ow2.asm_asm_9.7.1</t>
+  </si>
+  <si>
+    <t>org.jetbrains.kotlinx_kotlinx-serialization-json-jvm_1.7.3</t>
+  </si>
+  <si>
+    <t>org.aspectj_aspectjrt_1.9.22.1</t>
+  </si>
+  <si>
+    <t>99.13043</t>
+  </si>
+  <si>
+    <t>org.apache.hadoop_hadoop-common_3.4.1</t>
+  </si>
+  <si>
+    <t>xerces_xercesImpl_2.12.2</t>
+  </si>
+  <si>
+    <t>98.20442</t>
+  </si>
+  <si>
+    <t>io.netty_netty-all_4.1.115.Final</t>
+  </si>
+  <si>
+    <t>org.powermock_powermock-api-mockito2_2.0.9</t>
+  </si>
+  <si>
+    <t>96.0</t>
+  </si>
+  <si>
+    <t>org.apache.commons_commons-fileupload2-javax_2.0.0-M2</t>
+  </si>
+  <si>
+    <t>org.apache.httpcomponents.client5_httpclient5_5.4.1</t>
+  </si>
+  <si>
+    <t>99.736145</t>
+  </si>
+  <si>
+    <t>javax.mail_javax.mail-api_1.6.2</t>
+  </si>
+  <si>
+    <t>com.github.ben-manes.caffeine_caffeine_3.1.8</t>
+  </si>
+  <si>
+    <t>org.renjin.cran_testthat_1.0.2-renjin-17</t>
+  </si>
+  <si>
+    <t>Unable to collect/resolve dependency tree for a resolution due to: The following artifacts could not be resolved: org.renjin.cran:testthat:jar:sources:1.0.2-renjin-17 (absent): Could not find artifact org.renjin.cran:testthat:jar:sources:1.0.2-renjin-17 in central (https://repo.maven.apache.org/maven2/), caused by: Could not find artifact org.renjin.cran:testthat:jar:sources:1.0.2-renjin-17 in central (https://repo.maven.apache.org/maven2/)</t>
+  </si>
+  <si>
+    <t>org.clojure_clojurescript_1.11.132</t>
+  </si>
+  <si>
+    <t>org.spockframework_spock-core_2.4-M4-groovy-4.0</t>
+  </si>
+  <si>
+    <t>98.20359</t>
+  </si>
+  <si>
+    <t>org.freemarker_freemarker_2.3.33</t>
+  </si>
+  <si>
+    <t>99.51613</t>
+  </si>
+  <si>
+    <t>com.zaxxer_HikariCP_6.2.1</t>
+  </si>
+  <si>
+    <t>com.typesafe_config_1.4.3</t>
   </si>
 </sst>
 </file>
@@ -1022,10 +1160,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D138"/>
+  <dimension ref="A1:D171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A173" sqref="A173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2853,23 +2991,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>197</v>
       </c>
       <c r="B131" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>198</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B132" t="s">
         <v>5</v>
@@ -2883,13 +3021,13 @@
     </row>
     <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
+        <v>199</v>
+      </c>
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133" t="s">
         <v>200</v>
-      </c>
-      <c r="B133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C133" t="s">
-        <v>201</v>
       </c>
       <c r="D133" t="s">
         <v>7</v>
@@ -2897,7 +3035,7 @@
     </row>
     <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B134" t="s">
         <v>5</v>
@@ -2911,13 +3049,13 @@
     </row>
     <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
+        <v>202</v>
+      </c>
+      <c r="B135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" t="s">
         <v>203</v>
-      </c>
-      <c r="B135" t="s">
-        <v>5</v>
-      </c>
-      <c r="C135" t="s">
-        <v>204</v>
       </c>
       <c r="D135" t="s">
         <v>7</v>
@@ -2925,13 +3063,13 @@
     </row>
     <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
+        <v>204</v>
+      </c>
+      <c r="B136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136" t="s">
         <v>205</v>
-      </c>
-      <c r="B136" t="s">
-        <v>5</v>
-      </c>
-      <c r="C136" t="s">
-        <v>206</v>
       </c>
       <c r="D136" t="s">
         <v>7</v>
@@ -2939,7 +3077,7 @@
     </row>
     <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B137" t="s">
         <v>5</v>
@@ -2953,20 +3091,482 @@
     </row>
     <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
+        <v>207</v>
+      </c>
+      <c r="B138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
         <v>208</v>
       </c>
-      <c r="B138" t="s">
-        <v>5</v>
-      </c>
-      <c r="C138" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" t="s">
+      <c r="B139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>209</v>
+      </c>
+      <c r="B140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>210</v>
+      </c>
+      <c r="B141" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" t="s">
+        <v>211</v>
+      </c>
+      <c r="D141" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>212</v>
+      </c>
+      <c r="B142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>213</v>
+      </c>
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>214</v>
+      </c>
+      <c r="B144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144" t="s">
+        <v>215</v>
+      </c>
+      <c r="D144" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>216</v>
+      </c>
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145" t="s">
+        <v>217</v>
+      </c>
+      <c r="D145" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>218</v>
+      </c>
+      <c r="B146" t="s">
+        <v>31</v>
+      </c>
+      <c r="C146" t="s">
+        <v>7</v>
+      </c>
+      <c r="D146" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>220</v>
+      </c>
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>221</v>
+      </c>
+      <c r="B148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" t="s">
+        <v>222</v>
+      </c>
+      <c r="D148" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>223</v>
+      </c>
+      <c r="B149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149" t="s">
+        <v>224</v>
+      </c>
+      <c r="D149" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>225</v>
+      </c>
+      <c r="B150" t="s">
+        <v>31</v>
+      </c>
+      <c r="C150" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>227</v>
+      </c>
+      <c r="B151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>228</v>
+      </c>
+      <c r="B152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>229</v>
+      </c>
+      <c r="B153" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" t="s">
+        <v>14</v>
+      </c>
+      <c r="D153" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>230</v>
+      </c>
+      <c r="B154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>231</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>232</v>
+      </c>
+      <c r="B156" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" t="s">
+        <v>14</v>
+      </c>
+      <c r="D156" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>233</v>
+      </c>
+      <c r="B157" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157" t="s">
+        <v>234</v>
+      </c>
+      <c r="D157" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>235</v>
+      </c>
+      <c r="B158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>236</v>
+      </c>
+      <c r="B159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C159" t="s">
+        <v>237</v>
+      </c>
+      <c r="D159" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>238</v>
+      </c>
+      <c r="B160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C160" t="s">
+        <v>237</v>
+      </c>
+      <c r="D160" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>239</v>
+      </c>
+      <c r="B161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161" t="s">
+        <v>240</v>
+      </c>
+      <c r="D161" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>241</v>
+      </c>
+      <c r="B162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162" t="s">
+        <v>9</v>
+      </c>
+      <c r="D162" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>242</v>
+      </c>
+      <c r="B163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163" t="s">
+        <v>243</v>
+      </c>
+      <c r="D163" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>244</v>
+      </c>
+      <c r="B164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C164" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>245</v>
+      </c>
+      <c r="B165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C165" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>246</v>
+      </c>
+      <c r="B166" t="s">
+        <v>31</v>
+      </c>
+      <c r="C166" t="s">
+        <v>7</v>
+      </c>
+      <c r="D166" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>248</v>
+      </c>
+      <c r="B167" t="s">
+        <v>11</v>
+      </c>
+      <c r="C167" t="s">
+        <v>14</v>
+      </c>
+      <c r="D167" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>249</v>
+      </c>
+      <c r="B168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" t="s">
+        <v>250</v>
+      </c>
+      <c r="D168" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>251</v>
+      </c>
+      <c r="B169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C169" t="s">
+        <v>252</v>
+      </c>
+      <c r="D169" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>253</v>
+      </c>
+      <c r="B170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170" t="s">
+        <v>252</v>
+      </c>
+      <c r="D170" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>254</v>
+      </c>
+      <c r="B171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C171" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B138" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="B1:B171" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
         <filter val="ERROR"/>

--- a/src/main/java/de/upb/sse/cutNRun/results/Total_Java_And_NonJava_Projects_Considered.xlsx
+++ b/src/main/java/de/upb/sse/cutNRun/results/Total_Java_And_NonJava_Projects_Considered.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shazib\DEV\cutNRun\src\main\java\de\upb\sse\cutNRun\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A598CFD9-5DA7-4590-8229-9EEC74AAE289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1293D4-949B-46AA-99B0-3FAB29E20C50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Total_Java_And_NonJava_Projects" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Total_Java_And_NonJava_Projects!$B$1:$B$171</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Total_Java_And_NonJava_Projects!$B$1:$B$191</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="281">
   <si>
     <t>ProjectName</t>
   </si>
@@ -788,6 +788,84 @@
   </si>
   <si>
     <t>com.typesafe_config_1.4.3</t>
+  </si>
+  <si>
+    <t>com.google.auto.service_auto-service_1.1.1</t>
+  </si>
+  <si>
+    <t>org.springframework_spring-orm_6.2.0</t>
+  </si>
+  <si>
+    <t>org.apache.poi_poi-ooxml_5.3.0</t>
+  </si>
+  <si>
+    <t>99.845436</t>
+  </si>
+  <si>
+    <t>org.apache.commons_commons-math3_3.6.1</t>
+  </si>
+  <si>
+    <t>99.798386</t>
+  </si>
+  <si>
+    <t>org.springframework.boot_spring-boot-starter-data-jpa_3.4.0</t>
+  </si>
+  <si>
+    <t>com.fasterxml.jackson.datatype_jackson-datatype-jdk8_2.18.2</t>
+  </si>
+  <si>
+    <t>95.652176</t>
+  </si>
+  <si>
+    <t>io.rest-assured_rest-assured_5.5.0</t>
+  </si>
+  <si>
+    <t>dom4j_dom4j_1.6.1</t>
+  </si>
+  <si>
+    <t>javax.enterprise_cdi-api_2.0</t>
+  </si>
+  <si>
+    <t>org.slf4j_slf4j-jdk14_2.0.16</t>
+  </si>
+  <si>
+    <t>org.codehaus.groovy_groovy_3.0.23</t>
+  </si>
+  <si>
+    <t>94.3128</t>
+  </si>
+  <si>
+    <t>com.fasterxml.jackson.module_jackson-module-kotlin_2.18.2</t>
+  </si>
+  <si>
+    <t>7.692308</t>
+  </si>
+  <si>
+    <t>org.typelevel_cats-core_2.12.0</t>
+  </si>
+  <si>
+    <t>Unable to collect/resolve dependency tree for a resolution due to: The following artifacts could not be resolved: org.typelevel:cats-core:jar:sources:2.12.0 (absent): Could not find artifact org.typelevel:cats-core:jar:sources:2.12.0 in central (https://repo.maven.apache.org/maven2/), caused by: Could not find artifact org.typelevel:cats-core:jar:sources:2.12.0 in central (https://repo.maven.apache.org/maven2/)</t>
+  </si>
+  <si>
+    <t>org.glassfish.jaxb_jaxb-runtime_4.0.5</t>
+  </si>
+  <si>
+    <t>org.apache.maven_maven-artifact_3.9.9</t>
+  </si>
+  <si>
+    <t>org.codehaus.jackson_jackson-core-asl_1.9.13</t>
+  </si>
+  <si>
+    <t>org.eclipse.jetty_jetty-servlet_11.0.24</t>
+  </si>
+  <si>
+    <t>org.junit.platform_junit-platform-launcher_1.11.3</t>
+  </si>
+  <si>
+    <t>org.jetbrains.kotlin_kotlin-test_2.1.0</t>
+  </si>
+  <si>
+    <t>org.springframework.boot_spring-boot-starter-validation_3.4.0</t>
   </si>
 </sst>
 </file>
@@ -1160,15 +1238,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D171"/>
+  <dimension ref="A1:D191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="A173" sqref="A173"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B190" sqref="B190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="57.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -3565,8 +3644,288 @@
         <v>7</v>
       </c>
     </row>
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>255</v>
+      </c>
+      <c r="B172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>256</v>
+      </c>
+      <c r="B173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>257</v>
+      </c>
+      <c r="B174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C174" t="s">
+        <v>258</v>
+      </c>
+      <c r="D174" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>259</v>
+      </c>
+      <c r="B175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175" t="s">
+        <v>260</v>
+      </c>
+      <c r="D175" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>261</v>
+      </c>
+      <c r="B176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C176" t="s">
+        <v>260</v>
+      </c>
+      <c r="D176" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>262</v>
+      </c>
+      <c r="B177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C177" t="s">
+        <v>263</v>
+      </c>
+      <c r="D177" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>264</v>
+      </c>
+      <c r="B178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C178" t="s">
+        <v>263</v>
+      </c>
+      <c r="D178" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>265</v>
+      </c>
+      <c r="B179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C179" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>266</v>
+      </c>
+      <c r="B180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C180" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>267</v>
+      </c>
+      <c r="B181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C181" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>268</v>
+      </c>
+      <c r="B182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C182" t="s">
+        <v>269</v>
+      </c>
+      <c r="D182" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>270</v>
+      </c>
+      <c r="B183" t="s">
+        <v>11</v>
+      </c>
+      <c r="C183" t="s">
+        <v>271</v>
+      </c>
+      <c r="D183" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>272</v>
+      </c>
+      <c r="B184" t="s">
+        <v>31</v>
+      </c>
+      <c r="C184" t="s">
+        <v>7</v>
+      </c>
+      <c r="D184" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>274</v>
+      </c>
+      <c r="B185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C185" t="s">
+        <v>182</v>
+      </c>
+      <c r="D185" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>275</v>
+      </c>
+      <c r="B186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>276</v>
+      </c>
+      <c r="B187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C187" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>277</v>
+      </c>
+      <c r="B188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C188" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>278</v>
+      </c>
+      <c r="B189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C189" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>279</v>
+      </c>
+      <c r="B190" t="s">
+        <v>11</v>
+      </c>
+      <c r="C190" t="s">
+        <v>14</v>
+      </c>
+      <c r="D190" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>280</v>
+      </c>
+      <c r="B191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C191" t="s">
+        <v>14</v>
+      </c>
+      <c r="D191" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:B171" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="B1:B191" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
         <filter val="ERROR"/>
